--- a/biology/Botanique/Najas/Najas.xlsx
+++ b/biology/Botanique/Najas/Najas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Najas (ou Naïas) est un genre de plantes monocotylédones, appelées Naïades ou Najades, de la famille des Najadaceae selon la classification classique de Cronquist (1981)[1], ou des Hydrocharitaceae selon la classification phylogénétique. Il comprend quelques douzaines d'espèces. Ce sont des plantes herbacées aquatiques, submergées, des régions froides à tropicales.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Najas (ou Naïas) est un genre de plantes monocotylédones, appelées Naïades ou Najades, de la famille des Najadaceae selon la classification classique de Cronquist (1981), ou des Hydrocharitaceae selon la classification phylogénétique. Il comprend quelques douzaines d'espèces. Ce sont des plantes herbacées aquatiques, submergées, des régions froides à tropicales.
 Le nom générique vient du grec Naïas ou Naïade (du grec νάειν / náein couler, s'écouler, ruisseler) qui, dans la mythologie grecque, est la nymphe des fontaines et des rivières.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Parmi les 38 espèces référencées par Catalogue Of Life, citons :
 Najas affinis Rendle, 1899
